--- a/DxMonth24.xlsx
+++ b/DxMonth24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salahmekhalalati/Documents/R_projects/Listingvols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD88AE2-E281-CA44-B2A0-60725BBA0B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CAD1F1-2E89-0547-B866-7BC9DA879FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2740" windowWidth="26440" windowHeight="15260" xr2:uid="{1F10270B-366F-4147-BEAF-1FFE44AD779D}"/>
   </bookViews>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>RID</t>
-  </si>
-  <si>
-    <t>PTID</t>
   </si>
   <si>
     <t>SITEID</t>
@@ -1053,6 +1050,9 @@
   <si>
     <t>941_S_1203</t>
   </si>
+  <si>
+    <t>subject</t>
+  </si>
 </sst>
 </file>
 
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:BB276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,162 +1425,162 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>5752</v>
@@ -1589,16 +1589,16 @@
         <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1">
         <v>39696</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>5708</v>
@@ -1729,16 +1729,16 @@
         <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1">
         <v>39685</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>5758</v>
@@ -1869,16 +1869,16 @@
         <v>685</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1">
         <v>39696</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>5884</v>
@@ -2009,16 +2009,16 @@
         <v>729</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1">
         <v>39724</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>6508</v>
@@ -2149,16 +2149,16 @@
         <v>1155</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1">
         <v>39896</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>6258</v>
@@ -2289,16 +2289,16 @@
         <v>1261</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1">
         <v>39853</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>6510</v>
@@ -2429,16 +2429,16 @@
         <v>1268</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1">
         <v>39896</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>6322</v>
@@ -2569,16 +2569,16 @@
         <v>1280</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1">
         <v>39867</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>6094</v>
@@ -2709,16 +2709,16 @@
         <v>907</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1">
         <v>39793</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>6010</v>
@@ -2849,16 +2849,16 @@
         <v>908</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1">
         <v>39759</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>6092</v>
@@ -2989,16 +2989,16 @@
         <v>981</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1">
         <v>39793</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>6518</v>
@@ -3129,16 +3129,16 @@
         <v>1057</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1">
         <v>39897</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>6474</v>
@@ -3269,16 +3269,16 @@
         <v>1074</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1">
         <v>39889</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>6210</v>
@@ -3409,16 +3409,16 @@
         <v>1122</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1">
         <v>39833</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>5374</v>
@@ -3549,16 +3549,16 @@
         <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1">
         <v>39605</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>5678</v>
@@ -3689,16 +3689,16 @@
         <v>546</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="1">
         <v>39678</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>5608</v>
@@ -3829,16 +3829,16 @@
         <v>553</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1">
         <v>39664</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>5604</v>
@@ -3969,16 +3969,16 @@
         <v>572</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="1">
         <v>39664</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>5606</v>
@@ -4109,16 +4109,16 @@
         <v>602</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1">
         <v>39664</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>5492</v>
@@ -4249,16 +4249,16 @@
         <v>610</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="1">
         <v>39631</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>5946</v>
@@ -4389,16 +4389,16 @@
         <v>498</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1">
         <v>39742</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>6244</v>
@@ -4529,16 +4529,16 @@
         <v>731</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="1">
         <v>39843</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>6288</v>
@@ -4669,16 +4669,16 @@
         <v>1130</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="1">
         <v>39860</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>4184</v>
@@ -4809,16 +4809,16 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1">
         <v>39401</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>4362</v>
@@ -4949,16 +4949,16 @@
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="1">
         <v>39430</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>4528</v>
@@ -5089,16 +5089,16 @@
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="1">
         <v>39469</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>4764</v>
@@ -5229,16 +5229,16 @@
         <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="1">
         <v>39506</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>5022</v>
@@ -5369,16 +5369,16 @@
         <v>249</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="1">
         <v>39546</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>5234</v>
@@ -5509,16 +5509,16 @@
         <v>344</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="1">
         <v>39580</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>5952</v>
@@ -5649,16 +5649,16 @@
         <v>698</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="1">
         <v>39743</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>6296</v>
@@ -5789,16 +5789,16 @@
         <v>1206</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1">
         <v>39861</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>6308</v>
@@ -5929,16 +5929,16 @@
         <v>1222</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="1">
         <v>39863</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>6046</v>
@@ -6069,16 +6069,16 @@
         <v>751</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H34" s="1">
         <v>39776</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>6036</v>
@@ -6209,16 +6209,16 @@
         <v>842</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35">
         <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="1">
         <v>39771</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>6038</v>
@@ -6349,16 +6349,16 @@
         <v>862</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="1">
         <v>39771</v>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>5538</v>
@@ -6489,16 +6489,16 @@
         <v>419</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37" s="1">
         <v>39647</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>5956</v>
@@ -6629,16 +6629,16 @@
         <v>420</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H38" s="1">
         <v>39743</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>4162</v>
@@ -6769,16 +6769,16 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39">
         <v>107</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="1">
         <v>39396</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>4224</v>
@@ -6909,16 +6909,16 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40">
         <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="1">
         <v>39410</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>5176</v>
@@ -7049,16 +7049,16 @@
         <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41">
         <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="1">
         <v>39570</v>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>5136</v>
@@ -7189,16 +7189,16 @@
         <v>362</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="1">
         <v>39563</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>6134</v>
@@ -7329,16 +7329,16 @@
         <v>1080</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43">
         <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H43" s="1">
         <v>39799</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>6390</v>
@@ -7469,16 +7469,16 @@
         <v>1282</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44">
         <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44" s="1">
         <v>39881</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>6786</v>
@@ -7609,16 +7609,16 @@
         <v>1186</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="1">
         <v>40004</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>7408</v>
@@ -7749,16 +7749,16 @@
         <v>1276</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H46" s="1">
         <v>40294</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>4798</v>
@@ -7889,16 +7889,16 @@
         <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H47" s="1">
         <v>39511</v>
@@ -8020,7 +8020,7 @@
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>5358</v>
@@ -8029,16 +8029,16 @@
         <v>519</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48">
         <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48" s="1">
         <v>39604</v>
@@ -8160,7 +8160,7 @@
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>5354</v>
@@ -8169,16 +8169,16 @@
         <v>520</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49">
         <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1">
         <v>39604</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="50" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>5480</v>
@@ -8309,16 +8309,16 @@
         <v>548</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50">
         <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1">
         <v>39628</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>5506</v>
@@ -8449,16 +8449,16 @@
         <v>558</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="1">
         <v>39637</v>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>5554</v>
@@ -8589,16 +8589,16 @@
         <v>563</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52">
         <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52" s="1">
         <v>39651</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>5612</v>
@@ -8729,16 +8729,16 @@
         <v>658</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53">
         <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H53" s="1">
         <v>39665</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>6098</v>
@@ -8869,16 +8869,16 @@
         <v>359</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54">
         <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H54" s="1">
         <v>39794</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>5770</v>
@@ -9009,16 +9009,16 @@
         <v>702</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55">
         <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H55" s="1">
         <v>39701</v>
@@ -9093,7 +9093,7 @@
         <v>-4</v>
       </c>
       <c r="AJ55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK55">
         <v>-4</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>6168</v>
@@ -9149,16 +9149,16 @@
         <v>1117</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56">
         <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="1">
         <v>39812</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>6858</v>
@@ -9289,16 +9289,16 @@
         <v>1326</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57">
         <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57" s="1">
         <v>40039</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>4804</v>
@@ -9432,16 +9432,16 @@
         <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H58" s="1">
         <v>39511</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>4868</v>
@@ -9572,16 +9572,16 @@
         <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H59" s="1">
         <v>39518</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>6550</v>
@@ -9712,16 +9712,16 @@
         <v>1288</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E60">
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H60" s="1">
         <v>39910</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>4846</v>
@@ -9852,16 +9852,16 @@
         <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H61" s="1">
         <v>39514</v>
@@ -9942,7 +9942,7 @@
         <v>1</v>
       </c>
       <c r="AL61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AM61">
         <v>-4</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>4822</v>
@@ -9992,16 +9992,16 @@
         <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E62">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H62" s="1">
         <v>39512</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63">
         <v>4886</v>
@@ -10132,16 +10132,16 @@
         <v>276</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H63" s="1">
         <v>39520</v>
@@ -10263,7 +10263,7 @@
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64">
         <v>5232</v>
@@ -10272,16 +10272,16 @@
         <v>337</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H64" s="1">
         <v>39580</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65">
         <v>5248</v>
@@ -10412,16 +10412,16 @@
         <v>424</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H65" s="1">
         <v>39582</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66">
         <v>5722</v>
@@ -10552,16 +10552,16 @@
         <v>626</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H66" s="1">
         <v>39689</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67">
         <v>6152</v>
@@ -10692,16 +10692,16 @@
         <v>984</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H67" s="1">
         <v>39804</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68">
         <v>4820</v>
@@ -10832,16 +10832,16 @@
         <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H68" s="1">
         <v>39512</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69">
         <v>4710</v>
@@ -10972,16 +10972,16 @@
         <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H69" s="1">
         <v>39497</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70">
         <v>6206</v>
@@ -11112,16 +11112,16 @@
         <v>1097</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H70" s="1">
         <v>39832</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71">
         <v>6522</v>
@@ -11252,16 +11252,16 @@
         <v>1351</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H71" s="1">
         <v>39899</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72">
         <v>4204</v>
@@ -11392,16 +11392,16 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E72">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="1">
         <v>39406</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <v>4286</v>
@@ -11532,16 +11532,16 @@
         <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E73">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H73" s="1">
         <v>39420</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <v>4332</v>
@@ -11672,16 +11672,16 @@
         <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H74" s="1">
         <v>39427</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>4404</v>
@@ -11812,16 +11812,16 @@
         <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H75" s="1">
         <v>39437</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76">
         <v>4494</v>
@@ -11952,16 +11952,16 @@
         <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E76">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H76" s="1">
         <v>39463</v>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>4808</v>
@@ -12092,16 +12092,16 @@
         <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E77">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H77" s="1">
         <v>39511</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78">
         <v>4740</v>
@@ -12232,16 +12232,16 @@
         <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E78">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H78" s="1">
         <v>39504</v>
@@ -12363,7 +12363,7 @@
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79">
         <v>4996</v>
@@ -12372,16 +12372,16 @@
         <v>331</v>
       </c>
       <c r="D79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E79">
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H79" s="1">
         <v>39539</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <v>5164</v>
@@ -12512,16 +12512,16 @@
         <v>376</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E80">
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" s="1">
         <v>39568</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81">
         <v>5166</v>
@@ -12652,16 +12652,16 @@
         <v>388</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E81">
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H81" s="1">
         <v>39568</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82">
         <v>5600</v>
@@ -12792,16 +12792,16 @@
         <v>625</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E82">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H82" s="1">
         <v>39664</v>
@@ -12876,7 +12876,7 @@
         <v>-4</v>
       </c>
       <c r="AJ82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK82">
         <v>-4</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83">
         <v>5920</v>
@@ -12932,16 +12932,16 @@
         <v>887</v>
       </c>
       <c r="D83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E83">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H83" s="1">
         <v>39734</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84">
         <v>5958</v>
@@ -13072,16 +13072,16 @@
         <v>926</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E84">
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H84" s="1">
         <v>39743</v>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85">
         <v>6224</v>
@@ -13212,16 +13212,16 @@
         <v>1046</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E85">
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H85" s="1">
         <v>39835</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86">
         <v>6200</v>
@@ -13352,16 +13352,16 @@
         <v>1190</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E86">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H86" s="1">
         <v>39829</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87">
         <v>6008</v>
@@ -13492,16 +13492,16 @@
         <v>985</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E87">
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H87" s="1">
         <v>39758</v>
@@ -13623,7 +13623,7 @@
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88">
         <v>6070</v>
@@ -13632,16 +13632,16 @@
         <v>1063</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E88">
         <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H88" s="1">
         <v>39787</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B89">
         <v>4462</v>
@@ -13772,16 +13772,16 @@
         <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E89">
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H89" s="1">
         <v>39461</v>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B90">
         <v>4702</v>
@@ -13912,16 +13912,16 @@
         <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E90">
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H90" s="1">
         <v>39493</v>
@@ -14043,7 +14043,7 @@
     </row>
     <row r="91" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B91">
         <v>4636</v>
@@ -14052,16 +14052,16 @@
         <v>118</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E91">
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H91" s="1">
         <v>39485</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B92">
         <v>4640</v>
@@ -14192,16 +14192,16 @@
         <v>120</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H92" s="1">
         <v>39485</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B93">
         <v>5044</v>
@@ -14332,16 +14332,16 @@
         <v>256</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E93">
         <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H93" s="1">
         <v>39547</v>
@@ -14463,7 +14463,7 @@
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B94">
         <v>5170</v>
@@ -14472,16 +14472,16 @@
         <v>307</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94">
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H94" s="1">
         <v>39569</v>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95">
         <v>5190</v>
@@ -14612,16 +14612,16 @@
         <v>403</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E95">
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H95" s="1">
         <v>39573</v>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B96">
         <v>5300</v>
@@ -14752,16 +14752,16 @@
         <v>408</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E96">
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H96" s="1">
         <v>39595</v>
@@ -14883,7 +14883,7 @@
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97">
         <v>5470</v>
@@ -14892,16 +14892,16 @@
         <v>644</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E97">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H97" s="1">
         <v>39625</v>
@@ -15023,7 +15023,7 @@
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98">
         <v>5790</v>
@@ -15032,16 +15032,16 @@
         <v>835</v>
       </c>
       <c r="D98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E98">
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H98" s="1">
         <v>39708</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="99" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99">
         <v>6028</v>
@@ -15172,16 +15172,16 @@
         <v>1045</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E99">
         <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H99" s="1">
         <v>39770</v>
@@ -15303,7 +15303,7 @@
     </row>
     <row r="100" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100">
         <v>6440</v>
@@ -15312,16 +15312,16 @@
         <v>1387</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E100">
         <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H100" s="1">
         <v>39884</v>
@@ -15443,7 +15443,7 @@
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101">
         <v>5794</v>
@@ -15452,16 +15452,16 @@
         <v>824</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E101">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H101" s="1">
         <v>39709</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102">
         <v>6198</v>
@@ -15592,16 +15592,16 @@
         <v>843</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E102">
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H102" s="1">
         <v>39828</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B103">
         <v>5822</v>
@@ -15732,16 +15732,16 @@
         <v>845</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E103">
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H103" s="1">
         <v>39714</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104">
         <v>5982</v>
@@ -15872,16 +15872,16 @@
         <v>878</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E104">
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H104" s="1">
         <v>39751</v>
@@ -16003,7 +16003,7 @@
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B105">
         <v>6192</v>
@@ -16012,16 +16012,16 @@
         <v>914</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E105">
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H105" s="1">
         <v>39826</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B106">
         <v>6382</v>
@@ -16152,16 +16152,16 @@
         <v>1218</v>
       </c>
       <c r="D106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E106">
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H106" s="1">
         <v>39877</v>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B107">
         <v>6632</v>
@@ -16292,16 +16292,16 @@
         <v>1318</v>
       </c>
       <c r="D107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E107">
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H107" s="1">
         <v>39940</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B108">
         <v>5900</v>
@@ -16432,16 +16432,16 @@
         <v>618</v>
       </c>
       <c r="D108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E108">
         <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H108" s="1">
         <v>39728</v>
@@ -16563,7 +16563,7 @@
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B109">
         <v>5924</v>
@@ -16572,16 +16572,16 @@
         <v>830</v>
       </c>
       <c r="D109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E109">
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H109" s="1">
         <v>39736</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="110" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B110">
         <v>5926</v>
@@ -16712,16 +16712,16 @@
         <v>867</v>
       </c>
       <c r="D110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E110">
         <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H110" s="1">
         <v>39736</v>
@@ -16843,7 +16843,7 @@
     </row>
     <row r="111" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111">
         <v>6178</v>
@@ -16852,16 +16852,16 @@
         <v>1066</v>
       </c>
       <c r="D111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E111">
         <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H111" s="1">
         <v>39819</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112">
         <v>4964</v>
@@ -16992,16 +16992,16 @@
         <v>214</v>
       </c>
       <c r="D112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E112">
         <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H112" s="1">
         <v>39533</v>
@@ -17123,7 +17123,7 @@
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B113">
         <v>5334</v>
@@ -17132,16 +17132,16 @@
         <v>479</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E113">
         <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H113" s="1">
         <v>39603</v>
@@ -17263,7 +17263,7 @@
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114">
         <v>5716</v>
@@ -17272,16 +17272,16 @@
         <v>677</v>
       </c>
       <c r="D114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E114">
         <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H114" s="1">
         <v>39687</v>
@@ -17403,7 +17403,7 @@
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115">
         <v>6238</v>
@@ -17412,16 +17412,16 @@
         <v>1169</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E115">
         <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H115" s="1">
         <v>39841</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116">
         <v>5406</v>
@@ -17552,16 +17552,16 @@
         <v>514</v>
       </c>
       <c r="D116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E116">
         <v>52</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H116" s="1">
         <v>39612</v>
@@ -17683,7 +17683,7 @@
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117">
         <v>5672</v>
@@ -17692,16 +17692,16 @@
         <v>734</v>
       </c>
       <c r="D117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E117">
         <v>52</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H117" s="1">
         <v>39678</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="118" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118">
         <v>5676</v>
@@ -17832,16 +17832,16 @@
         <v>741</v>
       </c>
       <c r="D118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E118">
         <v>52</v>
       </c>
       <c r="F118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H118" s="1">
         <v>39678</v>
@@ -17963,7 +17963,7 @@
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B119">
         <v>5936</v>
@@ -17972,16 +17972,16 @@
         <v>906</v>
       </c>
       <c r="D119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E119">
         <v>52</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H119" s="1">
         <v>39742</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="120" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B120">
         <v>5944</v>
@@ -18112,16 +18112,16 @@
         <v>920</v>
       </c>
       <c r="D120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E120">
         <v>52</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H120" s="1">
         <v>39742</v>
@@ -18243,7 +18243,7 @@
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121">
         <v>5904</v>
@@ -18252,16 +18252,16 @@
         <v>922</v>
       </c>
       <c r="D121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E121">
         <v>52</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H121" s="1">
         <v>39729</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B122">
         <v>5940</v>
@@ -18392,16 +18392,16 @@
         <v>923</v>
       </c>
       <c r="D122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E122">
         <v>52</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H122" s="1">
         <v>39742</v>
@@ -18523,7 +18523,7 @@
     </row>
     <row r="123" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123">
         <v>6080</v>
@@ -18532,16 +18532,16 @@
         <v>1016</v>
       </c>
       <c r="D123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E123">
         <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H123" s="1">
         <v>39791</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124">
         <v>6128</v>
@@ -18672,16 +18672,16 @@
         <v>1098</v>
       </c>
       <c r="D124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E124">
         <v>52</v>
       </c>
       <c r="F124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H124" s="1">
         <v>39799</v>
@@ -18803,7 +18803,7 @@
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125">
         <v>6084</v>
@@ -18812,16 +18812,16 @@
         <v>1116</v>
       </c>
       <c r="D125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E125">
         <v>52</v>
       </c>
       <c r="F125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H125" s="1">
         <v>39792</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B126">
         <v>4668</v>
@@ -18952,16 +18952,16 @@
         <v>156</v>
       </c>
       <c r="D126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E126">
         <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H126" s="1">
         <v>39490</v>
@@ -19083,7 +19083,7 @@
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B127">
         <v>4944</v>
@@ -19092,16 +19092,16 @@
         <v>204</v>
       </c>
       <c r="D127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E127">
         <v>6</v>
       </c>
       <c r="F127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H127" s="1">
         <v>39532</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B128">
         <v>5030</v>
@@ -19232,16 +19232,16 @@
         <v>292</v>
       </c>
       <c r="D128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E128">
         <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H128" s="1">
         <v>39546</v>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="129" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B129">
         <v>6642</v>
@@ -19372,16 +19372,16 @@
         <v>555</v>
       </c>
       <c r="D129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E129">
         <v>6</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H129" s="1">
         <v>39946</v>
@@ -19503,7 +19503,7 @@
     </row>
     <row r="130" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B130">
         <v>6428</v>
@@ -19512,16 +19512,16 @@
         <v>997</v>
       </c>
       <c r="D130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E130">
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H130" s="1">
         <v>39883</v>
@@ -19643,7 +19643,7 @@
     </row>
     <row r="131" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B131">
         <v>5734</v>
@@ -19652,16 +19652,16 @@
         <v>672</v>
       </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E131">
         <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H131" s="1">
         <v>39693</v>
@@ -19783,7 +19783,7 @@
     </row>
     <row r="132" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B132">
         <v>5732</v>
@@ -19792,16 +19792,16 @@
         <v>673</v>
       </c>
       <c r="D132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E132">
         <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H132" s="1">
         <v>39693</v>
@@ -19923,7 +19923,7 @@
     </row>
     <row r="133" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B133">
         <v>5928</v>
@@ -19932,16 +19932,16 @@
         <v>813</v>
       </c>
       <c r="D133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E133">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H133" s="1">
         <v>39737</v>
@@ -20063,7 +20063,7 @@
     </row>
     <row r="134" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B134">
         <v>6022</v>
@@ -20072,16 +20072,16 @@
         <v>869</v>
       </c>
       <c r="D134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E134">
         <v>17</v>
       </c>
       <c r="F134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H134" s="1">
         <v>39769</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="135" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B135">
         <v>6050</v>
@@ -20212,16 +20212,16 @@
         <v>945</v>
       </c>
       <c r="D135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E135">
         <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H135" s="1">
         <v>39777</v>
@@ -20343,7 +20343,7 @@
     </row>
     <row r="136" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B136">
         <v>4802</v>
@@ -20352,16 +20352,16 @@
         <v>150</v>
       </c>
       <c r="D136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E136">
         <v>18</v>
       </c>
       <c r="F136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H136" s="1">
         <v>39511</v>
@@ -20483,7 +20483,7 @@
     </row>
     <row r="137" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B137">
         <v>5174</v>
@@ -20492,16 +20492,16 @@
         <v>303</v>
       </c>
       <c r="D137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E137">
         <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H137" s="1">
         <v>39570</v>
@@ -20623,7 +20623,7 @@
     </row>
     <row r="138" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B138">
         <v>5478</v>
@@ -20632,16 +20632,16 @@
         <v>377</v>
       </c>
       <c r="D138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E138">
         <v>18</v>
       </c>
       <c r="F138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H138" s="1">
         <v>39626</v>
@@ -20763,7 +20763,7 @@
     </row>
     <row r="139" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B139">
         <v>5424</v>
@@ -20772,16 +20772,16 @@
         <v>454</v>
       </c>
       <c r="D139" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E139">
         <v>18</v>
       </c>
       <c r="F139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H139" s="1">
         <v>39616</v>
@@ -20903,7 +20903,7 @@
     </row>
     <row r="140" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B140">
         <v>5308</v>
@@ -20912,16 +20912,16 @@
         <v>467</v>
       </c>
       <c r="D140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E140">
         <v>18</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H140" s="1">
         <v>39597</v>
@@ -21043,7 +21043,7 @@
     </row>
     <row r="141" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B141">
         <v>5494</v>
@@ -21052,16 +21052,16 @@
         <v>501</v>
       </c>
       <c r="D141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E141">
         <v>18</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H141" s="1">
         <v>39632</v>
@@ -21183,7 +21183,7 @@
     </row>
     <row r="142" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B142">
         <v>5518</v>
@@ -21192,16 +21192,16 @@
         <v>539</v>
       </c>
       <c r="D142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E142">
         <v>18</v>
       </c>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H142" s="1">
         <v>39639</v>
@@ -21323,7 +21323,7 @@
     </row>
     <row r="143" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B143">
         <v>5482</v>
@@ -21332,16 +21332,16 @@
         <v>552</v>
       </c>
       <c r="D143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E143">
         <v>18</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H143" s="1">
         <v>39630</v>
@@ -21463,7 +21463,7 @@
     </row>
     <row r="144" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B144">
         <v>6434</v>
@@ -21472,16 +21472,16 @@
         <v>588</v>
       </c>
       <c r="D144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E144">
         <v>18</v>
       </c>
       <c r="F144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144" s="1">
         <v>39884</v>
@@ -21606,7 +21606,7 @@
     </row>
     <row r="145" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B145">
         <v>6592</v>
@@ -21615,16 +21615,16 @@
         <v>1078</v>
       </c>
       <c r="D145" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E145">
         <v>18</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H145" s="1">
         <v>39923</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="146" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B146">
         <v>4628</v>
@@ -21755,16 +21755,16 @@
         <v>125</v>
       </c>
       <c r="D146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E146">
         <v>20</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H146" s="1">
         <v>39484</v>
@@ -21886,7 +21886,7 @@
     </row>
     <row r="147" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B147">
         <v>5074</v>
@@ -21895,16 +21895,16 @@
         <v>262</v>
       </c>
       <c r="D147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E147">
         <v>20</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H147" s="1">
         <v>39553</v>
@@ -22026,7 +22026,7 @@
     </row>
     <row r="148" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148">
         <v>5132</v>
@@ -22035,16 +22035,16 @@
         <v>314</v>
       </c>
       <c r="D148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E148">
         <v>20</v>
       </c>
       <c r="F148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H148" s="1">
         <v>39563</v>
@@ -22166,7 +22166,7 @@
     </row>
     <row r="149" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B149">
         <v>5636</v>
@@ -22175,16 +22175,16 @@
         <v>679</v>
       </c>
       <c r="D149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E149">
         <v>20</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H149" s="1">
         <v>39668</v>
@@ -22306,7 +22306,7 @@
     </row>
     <row r="150" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B150">
         <v>6196</v>
@@ -22315,16 +22315,16 @@
         <v>1010</v>
       </c>
       <c r="D150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E150">
         <v>20</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H150" s="1">
         <v>39828</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="151" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B151">
         <v>6870</v>
@@ -22455,16 +22455,16 @@
         <v>1418</v>
       </c>
       <c r="D151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E151">
         <v>20</v>
       </c>
       <c r="F151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H151" s="1">
         <v>40043</v>
@@ -22586,7 +22586,7 @@
     </row>
     <row r="152" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B152">
         <v>6886</v>
@@ -22595,16 +22595,16 @@
         <v>1425</v>
       </c>
       <c r="D152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E152">
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H152" s="1">
         <v>40049</v>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="153" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B153">
         <v>6366</v>
@@ -22735,16 +22735,16 @@
         <v>1123</v>
       </c>
       <c r="D153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E153">
         <v>56</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H153" s="1">
         <v>39876</v>
@@ -22866,7 +22866,7 @@
     </row>
     <row r="154" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B154">
         <v>6284</v>
@@ -22875,16 +22875,16 @@
         <v>1131</v>
       </c>
       <c r="D154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E154">
         <v>56</v>
       </c>
       <c r="F154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H154" s="1">
         <v>39860</v>
@@ -23006,7 +23006,7 @@
     </row>
     <row r="155" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B155">
         <v>6780</v>
@@ -23015,16 +23015,16 @@
         <v>1331</v>
       </c>
       <c r="D155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E155">
         <v>56</v>
       </c>
       <c r="F155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H155" s="1">
         <v>40003</v>
@@ -23146,7 +23146,7 @@
     </row>
     <row r="156" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B156">
         <v>6660</v>
@@ -23155,16 +23155,16 @@
         <v>671</v>
       </c>
       <c r="D156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E156">
         <v>57</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H156" s="1">
         <v>39952</v>
@@ -23286,7 +23286,7 @@
     </row>
     <row r="157" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B157">
         <v>6568</v>
@@ -23295,16 +23295,16 @@
         <v>951</v>
       </c>
       <c r="D157" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E157">
         <v>57</v>
       </c>
       <c r="F157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H157" s="1">
         <v>39916</v>
@@ -23426,7 +23426,7 @@
     </row>
     <row r="158" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B158">
         <v>6572</v>
@@ -23435,16 +23435,16 @@
         <v>952</v>
       </c>
       <c r="D158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E158">
         <v>57</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H158" s="1">
         <v>39916</v>
@@ -23566,7 +23566,7 @@
     </row>
     <row r="159" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B159">
         <v>6658</v>
@@ -23575,16 +23575,16 @@
         <v>989</v>
       </c>
       <c r="D159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E159">
         <v>57</v>
       </c>
       <c r="F159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H159" s="1">
         <v>39952</v>
@@ -23706,7 +23706,7 @@
     </row>
     <row r="160" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B160">
         <v>6662</v>
@@ -23715,16 +23715,16 @@
         <v>1250</v>
       </c>
       <c r="D160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E160">
         <v>57</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H160" s="1">
         <v>39952</v>
@@ -23846,7 +23846,7 @@
     </row>
     <row r="161" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B161">
         <v>6664</v>
@@ -23855,16 +23855,16 @@
         <v>1251</v>
       </c>
       <c r="D161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E161">
         <v>57</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H161" s="1">
         <v>39952</v>
@@ -23986,7 +23986,7 @@
     </row>
     <row r="162" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B162">
         <v>6696</v>
@@ -23995,16 +23995,16 @@
         <v>1346</v>
       </c>
       <c r="D162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E162">
         <v>57</v>
       </c>
       <c r="F162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H162" s="1">
         <v>39965</v>
@@ -24126,7 +24126,7 @@
     </row>
     <row r="163" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B163">
         <v>7550</v>
@@ -24135,16 +24135,16 @@
         <v>1352</v>
       </c>
       <c r="D163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E163">
         <v>57</v>
       </c>
       <c r="F163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H163" s="1">
         <v>40417</v>
@@ -24266,7 +24266,7 @@
     </row>
     <row r="164" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B164">
         <v>5410</v>
@@ -24275,16 +24275,16 @@
         <v>389</v>
       </c>
       <c r="D164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E164">
         <v>58</v>
       </c>
       <c r="F164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H164" s="1">
         <v>39612</v>
@@ -24406,7 +24406,7 @@
     </row>
     <row r="165" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B165">
         <v>6304</v>
@@ -24415,16 +24415,16 @@
         <v>919</v>
       </c>
       <c r="D165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E165">
         <v>58</v>
       </c>
       <c r="F165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H165" s="1">
         <v>39862</v>
@@ -24546,7 +24546,7 @@
     </row>
     <row r="166" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B166">
         <v>6966</v>
@@ -24555,16 +24555,16 @@
         <v>934</v>
       </c>
       <c r="D166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E166">
         <v>62</v>
       </c>
       <c r="F166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H166" s="1">
         <v>40074</v>
@@ -24686,7 +24686,7 @@
     </row>
     <row r="167" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B167">
         <v>6302</v>
@@ -24695,16 +24695,16 @@
         <v>1269</v>
       </c>
       <c r="D167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E167">
         <v>62</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H167" s="1">
         <v>39862</v>
@@ -24826,7 +24826,7 @@
     </row>
     <row r="168" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B168">
         <v>5984</v>
@@ -24835,16 +24835,16 @@
         <v>257</v>
       </c>
       <c r="D168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E168">
         <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H168" s="1">
         <v>39755</v>
@@ -24966,7 +24966,7 @@
     </row>
     <row r="169" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B169">
         <v>5458</v>
@@ -24975,16 +24975,16 @@
         <v>127</v>
       </c>
       <c r="D169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E169">
         <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H169" s="1">
         <v>39619</v>
@@ -25106,7 +25106,7 @@
     </row>
     <row r="170" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B170">
         <v>5584</v>
@@ -25115,16 +25115,16 @@
         <v>210</v>
       </c>
       <c r="D170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E170">
         <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H170" s="1">
         <v>39660</v>
@@ -25246,7 +25246,7 @@
     </row>
     <row r="171" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B171">
         <v>6494</v>
@@ -25255,16 +25255,16 @@
         <v>401</v>
       </c>
       <c r="D171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E171">
         <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H171" s="1">
         <v>39892</v>
@@ -25386,7 +25386,7 @@
     </row>
     <row r="172" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B172">
         <v>5460</v>
@@ -25395,16 +25395,16 @@
         <v>473</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E172">
         <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H172" s="1">
         <v>39619</v>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="173" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B173">
         <v>7222</v>
@@ -25535,16 +25535,16 @@
         <v>802</v>
       </c>
       <c r="D173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E173">
         <v>33</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H173" s="1">
         <v>40218</v>
@@ -25666,7 +25666,7 @@
     </row>
     <row r="174" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B174">
         <v>7224</v>
@@ -25675,16 +25675,16 @@
         <v>872</v>
       </c>
       <c r="D174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E174">
         <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H174" s="1">
         <v>40218</v>
@@ -25806,7 +25806,7 @@
     </row>
     <row r="175" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B175">
         <v>5180</v>
@@ -25815,16 +25815,16 @@
         <v>315</v>
       </c>
       <c r="D175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E175">
         <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H175" s="1">
         <v>39571</v>
@@ -25946,7 +25946,7 @@
     </row>
     <row r="176" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B176">
         <v>7382</v>
@@ -25955,16 +25955,16 @@
         <v>1380</v>
       </c>
       <c r="D176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E176">
         <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H176" s="1">
         <v>40274</v>
@@ -26086,7 +26086,7 @@
     </row>
     <row r="177" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B177">
         <v>4752</v>
@@ -26095,16 +26095,16 @@
         <v>89</v>
       </c>
       <c r="D177" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E177">
         <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H177" s="1">
         <v>39505</v>
@@ -26226,7 +26226,7 @@
     </row>
     <row r="178" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B178">
         <v>6142</v>
@@ -26235,16 +26235,16 @@
         <v>311</v>
       </c>
       <c r="D178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E178">
         <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H178" s="1">
         <v>39801</v>
@@ -26366,7 +26366,7 @@
     </row>
     <row r="179" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B179">
         <v>5688</v>
@@ -26375,16 +26375,16 @@
         <v>386</v>
       </c>
       <c r="D179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E179">
         <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H179" s="1">
         <v>39680</v>
@@ -26506,7 +26506,7 @@
     </row>
     <row r="180" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B180">
         <v>6430</v>
@@ -26515,16 +26515,16 @@
         <v>746</v>
       </c>
       <c r="D180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E180">
         <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H180" s="1">
         <v>39883</v>
@@ -26646,7 +26646,7 @@
     </row>
     <row r="181" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B181">
         <v>7744</v>
@@ -26655,16 +26655,16 @@
         <v>832</v>
       </c>
       <c r="D181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E181">
         <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H181" s="1">
         <v>41845</v>
@@ -26786,7 +26786,7 @@
     </row>
     <row r="182" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B182">
         <v>7252</v>
@@ -26795,16 +26795,16 @@
         <v>1256</v>
       </c>
       <c r="D182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E182">
         <v>39</v>
       </c>
       <c r="F182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H182" s="1">
         <v>40227</v>
@@ -26929,7 +26929,7 @@
     </row>
     <row r="183" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B183">
         <v>4772</v>
@@ -26938,16 +26938,16 @@
         <v>160</v>
       </c>
       <c r="D183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E183">
         <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H183" s="1">
         <v>39506</v>
@@ -27069,7 +27069,7 @@
     </row>
     <row r="184" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B184">
         <v>4742</v>
@@ -27078,16 +27078,16 @@
         <v>171</v>
       </c>
       <c r="D184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E184">
         <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H184" s="1">
         <v>39504</v>
@@ -27209,7 +27209,7 @@
     </row>
     <row r="185" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B185">
         <v>5050</v>
@@ -27218,16 +27218,16 @@
         <v>172</v>
       </c>
       <c r="D185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E185">
         <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H185" s="1">
         <v>39548</v>
@@ -27349,7 +27349,7 @@
     </row>
     <row r="186" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B186">
         <v>5112</v>
@@ -27358,16 +27358,16 @@
         <v>269</v>
       </c>
       <c r="D186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E186">
         <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H186" s="1">
         <v>39560</v>
@@ -27489,7 +27489,7 @@
     </row>
     <row r="187" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B187">
         <v>5614</v>
@@ -27498,16 +27498,16 @@
         <v>667</v>
       </c>
       <c r="D187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E187">
         <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H187" s="1">
         <v>39665</v>
@@ -27629,7 +27629,7 @@
     </row>
     <row r="188" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B188">
         <v>6020</v>
@@ -27638,16 +27638,16 @@
         <v>896</v>
       </c>
       <c r="D188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E188">
         <v>44</v>
       </c>
       <c r="F188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H188" s="1">
         <v>39766</v>
@@ -27769,7 +27769,7 @@
     </row>
     <row r="189" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B189">
         <v>4344</v>
@@ -27778,16 +27778,16 @@
         <v>51</v>
       </c>
       <c r="D189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E189">
         <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H189" s="1">
         <v>39429</v>
@@ -27909,7 +27909,7 @@
     </row>
     <row r="190" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B190">
         <v>4972</v>
@@ -27918,16 +27918,16 @@
         <v>291</v>
       </c>
       <c r="D190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E190">
         <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H190" s="1">
         <v>39535</v>
@@ -28049,7 +28049,7 @@
     </row>
     <row r="191" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B191">
         <v>5086</v>
@@ -28058,16 +28058,16 @@
         <v>352</v>
       </c>
       <c r="D191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E191">
         <v>45</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H191" s="1">
         <v>39555</v>
@@ -28189,7 +28189,7 @@
     </row>
     <row r="192" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B192">
         <v>6072</v>
@@ -28198,16 +28198,16 @@
         <v>1034</v>
       </c>
       <c r="D192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E192">
         <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H192" s="1">
         <v>39787</v>
@@ -28329,7 +28329,7 @@
     </row>
     <row r="193" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B193">
         <v>4486</v>
@@ -28338,16 +28338,16 @@
         <v>69</v>
       </c>
       <c r="D193" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E193">
         <v>4</v>
       </c>
       <c r="F193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H193" s="1">
         <v>39463</v>
@@ -28469,7 +28469,7 @@
     </row>
     <row r="194" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B194">
         <v>5114</v>
@@ -28478,16 +28478,16 @@
         <v>296</v>
       </c>
       <c r="D194" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E194">
         <v>4</v>
       </c>
       <c r="F194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H194" s="1">
         <v>39561</v>
@@ -28544,7 +28544,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="AB194" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE194">
         <v>-4</v>
@@ -28609,7 +28609,7 @@
     </row>
     <row r="195" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B195">
         <v>6452</v>
@@ -28618,16 +28618,16 @@
         <v>1226</v>
       </c>
       <c r="D195" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E195">
         <v>4</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H195" s="1">
         <v>39888</v>
@@ -28714,7 +28714,7 @@
         <v>-4</v>
       </c>
       <c r="AN195" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO195">
         <v>-4</v>
@@ -28749,7 +28749,7 @@
     </row>
     <row r="196" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B196">
         <v>6464</v>
@@ -28758,16 +28758,16 @@
         <v>1286</v>
       </c>
       <c r="D196" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E196">
         <v>4</v>
       </c>
       <c r="F196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H196" s="1">
         <v>39888</v>
@@ -28889,7 +28889,7 @@
     </row>
     <row r="197" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B197">
         <v>4670</v>
@@ -28898,16 +28898,16 @@
         <v>166</v>
       </c>
       <c r="D197" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E197">
         <v>87</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H197" s="1">
         <v>39490</v>
@@ -29029,7 +29029,7 @@
     </row>
     <row r="198" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B198">
         <v>4682</v>
@@ -29038,16 +29038,16 @@
         <v>173</v>
       </c>
       <c r="D198" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E198">
         <v>87</v>
       </c>
       <c r="F198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H198" s="1">
         <v>39491</v>
@@ -29169,7 +29169,7 @@
     </row>
     <row r="199" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B199">
         <v>5242</v>
@@ -29178,16 +29178,16 @@
         <v>378</v>
       </c>
       <c r="D199" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E199">
         <v>87</v>
       </c>
       <c r="F199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H199" s="1">
         <v>39581</v>
@@ -29309,7 +29309,7 @@
     </row>
     <row r="200" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B200">
         <v>5110</v>
@@ -29318,16 +29318,16 @@
         <v>416</v>
       </c>
       <c r="D200" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E200">
         <v>87</v>
       </c>
       <c r="F200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H200" s="1">
         <v>39560</v>
@@ -29449,7 +29449,7 @@
     </row>
     <row r="201" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B201">
         <v>6106</v>
@@ -29458,16 +29458,16 @@
         <v>1106</v>
       </c>
       <c r="D201" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E201">
         <v>87</v>
       </c>
       <c r="F201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H201" s="1">
         <v>39794</v>
@@ -29589,7 +29589,7 @@
     </row>
     <row r="202" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B202">
         <v>6138</v>
@@ -29598,16 +29598,16 @@
         <v>1118</v>
       </c>
       <c r="D202" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E202">
         <v>87</v>
       </c>
       <c r="F202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H202" s="1">
         <v>39801</v>
@@ -29729,7 +29729,7 @@
     </row>
     <row r="203" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B203">
         <v>5244</v>
@@ -29738,16 +29738,16 @@
         <v>361</v>
       </c>
       <c r="D203" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E203">
         <v>5</v>
       </c>
       <c r="F203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H203" s="1">
         <v>39581</v>
@@ -29869,7 +29869,7 @@
     </row>
     <row r="204" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B204">
         <v>5302</v>
@@ -29878,16 +29878,16 @@
         <v>382</v>
       </c>
       <c r="D204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E204">
         <v>5</v>
       </c>
       <c r="F204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H204" s="1">
         <v>39595</v>
@@ -30009,7 +30009,7 @@
     </row>
     <row r="205" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B205">
         <v>5784</v>
@@ -30018,16 +30018,16 @@
         <v>657</v>
       </c>
       <c r="D205" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E205">
         <v>5</v>
       </c>
       <c r="F205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H205" s="1">
         <v>39707</v>
@@ -30149,7 +30149,7 @@
     </row>
     <row r="206" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B206">
         <v>5736</v>
@@ -30158,16 +30158,16 @@
         <v>752</v>
       </c>
       <c r="D206" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E206">
         <v>5</v>
       </c>
       <c r="F206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H206" s="1">
         <v>39693</v>
@@ -30289,7 +30289,7 @@
     </row>
     <row r="207" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B207">
         <v>6030</v>
@@ -30298,16 +30298,16 @@
         <v>834</v>
       </c>
       <c r="D207" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E207">
         <v>5</v>
       </c>
       <c r="F207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H207" s="1">
         <v>39770</v>
@@ -30429,7 +30429,7 @@
     </row>
     <row r="208" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B208">
         <v>6264</v>
@@ -30438,16 +30438,16 @@
         <v>1232</v>
       </c>
       <c r="D208" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E208">
         <v>5</v>
       </c>
       <c r="F208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H208" s="1">
         <v>39854</v>
@@ -30569,7 +30569,7 @@
     </row>
     <row r="209" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B209">
         <v>6414</v>
@@ -30578,16 +30578,16 @@
         <v>1243</v>
       </c>
       <c r="D209" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E209">
         <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H209" s="1">
         <v>39882</v>
@@ -30709,7 +30709,7 @@
     </row>
     <row r="210" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B210">
         <v>6316</v>
@@ -30718,16 +30718,16 @@
         <v>1249</v>
       </c>
       <c r="D210" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E210">
         <v>5</v>
       </c>
       <c r="F210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H210" s="1">
         <v>39864</v>
@@ -30849,7 +30849,7 @@
     </row>
     <row r="211" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B211">
         <v>6502</v>
@@ -30858,16 +30858,16 @@
         <v>1271</v>
       </c>
       <c r="D211" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E211">
         <v>5</v>
       </c>
       <c r="F211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H211" s="1">
         <v>39895</v>
@@ -30989,7 +30989,7 @@
     </row>
     <row r="212" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B212">
         <v>4762</v>
@@ -30998,16 +30998,16 @@
         <v>72</v>
       </c>
       <c r="D212" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E212">
         <v>94</v>
       </c>
       <c r="F212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H212" s="1">
         <v>39506</v>
@@ -31129,7 +31129,7 @@
     </row>
     <row r="213" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B213">
         <v>5256</v>
@@ -31138,16 +31138,16 @@
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E213">
         <v>94</v>
       </c>
       <c r="F213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H213" s="1">
         <v>39582</v>
@@ -31269,7 +31269,7 @@
     </row>
     <row r="214" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B214">
         <v>5254</v>
@@ -31278,16 +31278,16 @@
         <v>108</v>
       </c>
       <c r="D214" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E214">
         <v>94</v>
       </c>
       <c r="F214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H214" s="1">
         <v>39582</v>
@@ -31409,7 +31409,7 @@
     </row>
     <row r="215" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B215">
         <v>5246</v>
@@ -31418,16 +31418,16 @@
         <v>113</v>
       </c>
       <c r="D215" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E215">
         <v>94</v>
       </c>
       <c r="F215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H215" s="1">
         <v>39582</v>
@@ -31549,7 +31549,7 @@
     </row>
     <row r="216" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B216">
         <v>5264</v>
@@ -31558,16 +31558,16 @@
         <v>298</v>
       </c>
       <c r="D216" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E216">
         <v>94</v>
       </c>
       <c r="F216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H216" s="1">
         <v>39583</v>
@@ -31689,7 +31689,7 @@
     </row>
     <row r="217" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B217">
         <v>7066</v>
@@ -31698,16 +31698,16 @@
         <v>1300</v>
       </c>
       <c r="D217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E217">
         <v>94</v>
       </c>
       <c r="F217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H217" s="1">
         <v>40133</v>
@@ -31829,7 +31829,7 @@
     </row>
     <row r="218" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B218">
         <v>5496</v>
@@ -31838,16 +31838,16 @@
         <v>605</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E218">
         <v>113</v>
       </c>
       <c r="F218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H218" s="1">
         <v>39632</v>
@@ -31969,7 +31969,7 @@
     </row>
     <row r="219" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B219">
         <v>5504</v>
@@ -31978,16 +31978,16 @@
         <v>680</v>
       </c>
       <c r="D219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E219">
         <v>113</v>
       </c>
       <c r="F219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H219" s="1">
         <v>39637</v>
@@ -32109,7 +32109,7 @@
     </row>
     <row r="220" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B220">
         <v>5564</v>
@@ -32118,16 +32118,16 @@
         <v>708</v>
       </c>
       <c r="D220" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E220">
         <v>113</v>
       </c>
       <c r="F220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H220" s="1">
         <v>39657</v>
@@ -32249,7 +32249,7 @@
     </row>
     <row r="221" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B221">
         <v>5714</v>
@@ -32258,16 +32258,16 @@
         <v>709</v>
       </c>
       <c r="D221" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E221">
         <v>113</v>
       </c>
       <c r="F221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H221" s="1">
         <v>39687</v>
@@ -32389,7 +32389,7 @@
     </row>
     <row r="222" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B222">
         <v>6088</v>
@@ -32398,16 +32398,16 @@
         <v>1077</v>
       </c>
       <c r="D222" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E222">
         <v>113</v>
       </c>
       <c r="F222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H222" s="1">
         <v>39793</v>
@@ -32529,7 +32529,7 @@
     </row>
     <row r="223" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B223">
         <v>6248</v>
@@ -32538,16 +32538,16 @@
         <v>1187</v>
       </c>
       <c r="D223" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E223">
         <v>113</v>
       </c>
       <c r="F223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H223" s="1">
         <v>39849</v>
@@ -32669,7 +32669,7 @@
     </row>
     <row r="224" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B224">
         <v>4584</v>
@@ -32678,16 +32678,16 @@
         <v>112</v>
       </c>
       <c r="D224" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E224">
         <v>114</v>
       </c>
       <c r="F224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H224" s="1">
         <v>39478</v>
@@ -32809,7 +32809,7 @@
     </row>
     <row r="225" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B225">
         <v>5008</v>
@@ -32818,16 +32818,16 @@
         <v>259</v>
       </c>
       <c r="D225" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E225">
         <v>114</v>
       </c>
       <c r="F225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H225" s="1">
         <v>39542</v>
@@ -32949,7 +32949,7 @@
     </row>
     <row r="226" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B226">
         <v>5266</v>
@@ -32958,16 +32958,16 @@
         <v>260</v>
       </c>
       <c r="D226" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E226">
         <v>114</v>
       </c>
       <c r="F226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H226" s="1">
         <v>39583</v>
@@ -33089,7 +33089,7 @@
     </row>
     <row r="227" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B227">
         <v>5510</v>
@@ -33098,16 +33098,16 @@
         <v>622</v>
       </c>
       <c r="D227" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E227">
         <v>114</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H227" s="1">
         <v>39637</v>
@@ -33229,7 +33229,7 @@
     </row>
     <row r="228" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B228">
         <v>5654</v>
@@ -33238,16 +33238,16 @@
         <v>684</v>
       </c>
       <c r="D228" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E228">
         <v>114</v>
       </c>
       <c r="F228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H228" s="1">
         <v>39673</v>
@@ -33369,7 +33369,7 @@
     </row>
     <row r="229" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B229">
         <v>6034</v>
@@ -33378,16 +33378,16 @@
         <v>925</v>
       </c>
       <c r="D229" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E229">
         <v>114</v>
       </c>
       <c r="F229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H229" s="1">
         <v>39771</v>
@@ -33509,7 +33509,7 @@
     </row>
     <row r="230" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B230">
         <v>6172</v>
@@ -33518,16 +33518,16 @@
         <v>1032</v>
       </c>
       <c r="D230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E230">
         <v>114</v>
       </c>
       <c r="F230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H230" s="1">
         <v>39818</v>
@@ -33649,7 +33649,7 @@
     </row>
     <row r="231" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B231">
         <v>6868</v>
@@ -33658,16 +33658,16 @@
         <v>1419</v>
       </c>
       <c r="D231" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E231">
         <v>114</v>
       </c>
       <c r="F231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H231" s="1">
         <v>40042</v>
@@ -33789,7 +33789,7 @@
     </row>
     <row r="232" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B232">
         <v>7072</v>
@@ -33798,16 +33798,16 @@
         <v>1427</v>
       </c>
       <c r="D232" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E232">
         <v>114</v>
       </c>
       <c r="F232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H232" s="1">
         <v>40134</v>
@@ -33929,7 +33929,7 @@
     </row>
     <row r="233" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B233">
         <v>4838</v>
@@ -33938,16 +33938,16 @@
         <v>135</v>
       </c>
       <c r="D233" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E233">
         <v>115</v>
       </c>
       <c r="F233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H233" s="1">
         <v>39513</v>
@@ -34069,7 +34069,7 @@
     </row>
     <row r="234" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B234">
         <v>5004</v>
@@ -34078,16 +34078,16 @@
         <v>200</v>
       </c>
       <c r="D234" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E234">
         <v>115</v>
       </c>
       <c r="F234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H234" s="1">
         <v>39541</v>
@@ -34144,7 +34144,7 @@
         <v>8</v>
       </c>
       <c r="AB234" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AE234">
         <v>-4</v>
@@ -34209,7 +34209,7 @@
     </row>
     <row r="235" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B235">
         <v>4904</v>
@@ -34218,16 +34218,16 @@
         <v>225</v>
       </c>
       <c r="D235" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E235">
         <v>115</v>
       </c>
       <c r="F235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H235" s="1">
         <v>39525</v>
@@ -34349,7 +34349,7 @@
     </row>
     <row r="236" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B236">
         <v>5202</v>
@@ -34358,16 +34358,16 @@
         <v>227</v>
       </c>
       <c r="D236" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E236">
         <v>115</v>
       </c>
       <c r="F236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H236" s="1">
         <v>39574</v>
@@ -34489,7 +34489,7 @@
     </row>
     <row r="237" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B237">
         <v>5368</v>
@@ -34498,16 +34498,16 @@
         <v>229</v>
       </c>
       <c r="D237" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E237">
         <v>115</v>
       </c>
       <c r="F237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H237" s="1">
         <v>39605</v>
@@ -34629,7 +34629,7 @@
     </row>
     <row r="238" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B238">
         <v>5366</v>
@@ -34638,16 +34638,16 @@
         <v>230</v>
       </c>
       <c r="D238" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E238">
         <v>115</v>
       </c>
       <c r="F238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H238" s="1">
         <v>39605</v>
@@ -34769,7 +34769,7 @@
     </row>
     <row r="239" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B239">
         <v>5208</v>
@@ -34778,16 +34778,16 @@
         <v>272</v>
       </c>
       <c r="D239" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E239">
         <v>115</v>
       </c>
       <c r="F239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H239" s="1">
         <v>39574</v>
@@ -34909,7 +34909,7 @@
     </row>
     <row r="240" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B240">
         <v>5408</v>
@@ -34918,16 +34918,16 @@
         <v>545</v>
       </c>
       <c r="D240" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E240">
         <v>115</v>
       </c>
       <c r="F240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H240" s="1">
         <v>39612</v>
@@ -35049,7 +35049,7 @@
     </row>
     <row r="241" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B241">
         <v>7146</v>
@@ -35058,16 +35058,16 @@
         <v>1407</v>
       </c>
       <c r="D241" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E241">
         <v>115</v>
       </c>
       <c r="F241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H241" s="1">
         <v>40183</v>
@@ -35189,7 +35189,7 @@
     </row>
     <row r="242" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B242">
         <v>5858</v>
@@ -35198,16 +35198,16 @@
         <v>778</v>
       </c>
       <c r="D242" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E242">
         <v>116</v>
       </c>
       <c r="F242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H242" s="1">
         <v>39721</v>
@@ -35329,7 +35329,7 @@
     </row>
     <row r="243" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B243">
         <v>6372</v>
@@ -35338,16 +35338,16 @@
         <v>1246</v>
       </c>
       <c r="D243" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E243">
         <v>116</v>
       </c>
       <c r="F243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H243" s="1">
         <v>39876</v>
@@ -35469,7 +35469,7 @@
     </row>
     <row r="244" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B244">
         <v>4898</v>
@@ -35478,16 +35478,16 @@
         <v>232</v>
       </c>
       <c r="D244" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E244">
         <v>117</v>
       </c>
       <c r="F244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H244" s="1">
         <v>39523</v>
@@ -35609,7 +35609,7 @@
     </row>
     <row r="245" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B245">
         <v>5010</v>
@@ -35618,16 +35618,16 @@
         <v>285</v>
       </c>
       <c r="D245" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E245">
         <v>117</v>
       </c>
       <c r="F245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H245" s="1">
         <v>39542</v>
@@ -35749,7 +35749,7 @@
     </row>
     <row r="246" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B246">
         <v>5038</v>
@@ -35758,16 +35758,16 @@
         <v>289</v>
       </c>
       <c r="D246" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E246">
         <v>117</v>
       </c>
       <c r="F246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H246" s="1">
         <v>39547</v>
@@ -35889,7 +35889,7 @@
     </row>
     <row r="247" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B247">
         <v>6900</v>
@@ -35898,16 +35898,16 @@
         <v>505</v>
       </c>
       <c r="D247" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E247">
         <v>117</v>
       </c>
       <c r="F247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H247" s="1">
         <v>40050</v>
@@ -35964,7 +35964,7 @@
         <v>8</v>
       </c>
       <c r="AB247" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE247">
         <v>-4</v>
@@ -36029,7 +36029,7 @@
     </row>
     <row r="248" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B248">
         <v>6898</v>
@@ -36038,16 +36038,16 @@
         <v>886</v>
       </c>
       <c r="D248" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E248">
         <v>117</v>
       </c>
       <c r="F248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H248" s="1">
         <v>40050</v>
@@ -36169,7 +36169,7 @@
     </row>
     <row r="249" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B249">
         <v>6896</v>
@@ -36178,16 +36178,16 @@
         <v>969</v>
       </c>
       <c r="D249" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E249">
         <v>117</v>
       </c>
       <c r="F249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H249" s="1">
         <v>40050</v>
@@ -36309,7 +36309,7 @@
     </row>
     <row r="250" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B250">
         <v>7576</v>
@@ -36318,16 +36318,16 @@
         <v>1200</v>
       </c>
       <c r="D250" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E250">
         <v>117</v>
       </c>
       <c r="F250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H250" s="1">
         <v>40442</v>
@@ -36449,7 +36449,7 @@
     </row>
     <row r="251" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B251">
         <v>5284</v>
@@ -36458,16 +36458,16 @@
         <v>123</v>
       </c>
       <c r="D251" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E251">
         <v>118</v>
       </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H251" s="1">
         <v>39590</v>
@@ -36589,7 +36589,7 @@
     </row>
     <row r="252" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B252">
         <v>5116</v>
@@ -36598,16 +36598,16 @@
         <v>384</v>
       </c>
       <c r="D252" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E252">
         <v>118</v>
       </c>
       <c r="F252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H252" s="1">
         <v>39561</v>
@@ -36729,7 +36729,7 @@
     </row>
     <row r="253" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B253">
         <v>5124</v>
@@ -36738,16 +36738,16 @@
         <v>441</v>
       </c>
       <c r="D253" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E253">
         <v>118</v>
       </c>
       <c r="F253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H253" s="1">
         <v>39563</v>
@@ -36869,7 +36869,7 @@
     </row>
     <row r="254" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B254">
         <v>5194</v>
@@ -36878,16 +36878,16 @@
         <v>86</v>
       </c>
       <c r="D254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E254">
         <v>123</v>
       </c>
       <c r="F254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H254" s="1">
         <v>39574</v>
@@ -37009,7 +37009,7 @@
     </row>
     <row r="255" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B255">
         <v>4736</v>
@@ -37018,16 +37018,16 @@
         <v>107</v>
       </c>
       <c r="D255" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E255">
         <v>123</v>
       </c>
       <c r="F255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H255" s="1">
         <v>39504</v>
@@ -37149,7 +37149,7 @@
     </row>
     <row r="256" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B256">
         <v>4796</v>
@@ -37158,16 +37158,16 @@
         <v>186</v>
       </c>
       <c r="D256" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E256">
         <v>123</v>
       </c>
       <c r="F256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H256" s="1">
         <v>39510</v>
@@ -37289,7 +37289,7 @@
     </row>
     <row r="257" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B257">
         <v>5838</v>
@@ -37298,16 +37298,16 @@
         <v>695</v>
       </c>
       <c r="D257" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E257">
         <v>123</v>
       </c>
       <c r="F257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H257" s="1">
         <v>39717</v>
@@ -37429,7 +37429,7 @@
     </row>
     <row r="258" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B258">
         <v>5972</v>
@@ -37438,16 +37438,16 @@
         <v>873</v>
       </c>
       <c r="D258" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E258">
         <v>123</v>
       </c>
       <c r="F258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H258" s="1">
         <v>39750</v>
@@ -37572,7 +37572,7 @@
     </row>
     <row r="259" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B259">
         <v>5218</v>
@@ -37581,16 +37581,16 @@
         <v>301</v>
       </c>
       <c r="D259" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E259">
         <v>124</v>
       </c>
       <c r="F259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H259" s="1">
         <v>39576</v>
@@ -37712,7 +37712,7 @@
     </row>
     <row r="260" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B260">
         <v>5310</v>
@@ -37721,16 +37721,16 @@
         <v>459</v>
       </c>
       <c r="D260" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E260">
         <v>124</v>
       </c>
       <c r="F260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H260" s="1">
         <v>39597</v>
@@ -37852,7 +37852,7 @@
     </row>
     <row r="261" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B261">
         <v>5750</v>
@@ -37861,16 +37861,16 @@
         <v>668</v>
       </c>
       <c r="D261" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E261">
         <v>124</v>
       </c>
       <c r="F261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H261" s="1">
         <v>39696</v>
@@ -37992,7 +37992,7 @@
     </row>
     <row r="262" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B262">
         <v>6380</v>
@@ -38001,16 +38001,16 @@
         <v>722</v>
       </c>
       <c r="D262" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E262">
         <v>124</v>
       </c>
       <c r="F262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H262" s="1">
         <v>39877</v>
@@ -38132,7 +38132,7 @@
     </row>
     <row r="263" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B263">
         <v>5856</v>
@@ -38141,16 +38141,16 @@
         <v>800</v>
       </c>
       <c r="D263" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E263">
         <v>124</v>
       </c>
       <c r="F263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H263" s="1">
         <v>39721</v>
@@ -38207,7 +38207,7 @@
         <v>8</v>
       </c>
       <c r="AB263" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE263">
         <v>-4</v>
@@ -38272,7 +38272,7 @@
     </row>
     <row r="264" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B264">
         <v>6312</v>
@@ -38281,16 +38281,16 @@
         <v>972</v>
       </c>
       <c r="D264" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E264">
         <v>124</v>
       </c>
       <c r="F264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H264" s="1">
         <v>39864</v>
@@ -38412,7 +38412,7 @@
     </row>
     <row r="265" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B265">
         <v>6314</v>
@@ -38421,16 +38421,16 @@
         <v>973</v>
       </c>
       <c r="D265" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E265">
         <v>124</v>
       </c>
       <c r="F265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H265" s="1">
         <v>39864</v>
@@ -38552,7 +38552,7 @@
     </row>
     <row r="266" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B266">
         <v>6214</v>
@@ -38561,16 +38561,16 @@
         <v>994</v>
       </c>
       <c r="D266" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E266">
         <v>124</v>
       </c>
       <c r="F266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H266" s="1">
         <v>39834</v>
@@ -38692,7 +38692,7 @@
     </row>
     <row r="267" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B267">
         <v>6942</v>
@@ -38701,16 +38701,16 @@
         <v>1414</v>
       </c>
       <c r="D267" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E267">
         <v>124</v>
       </c>
       <c r="F267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H267" s="1">
         <v>40071</v>
@@ -38832,7 +38832,7 @@
     </row>
     <row r="268" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B268">
         <v>5906</v>
@@ -38841,16 +38841,16 @@
         <v>717</v>
       </c>
       <c r="D268" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E268">
         <v>19</v>
       </c>
       <c r="F268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H268" s="1">
         <v>39729</v>
@@ -38972,7 +38972,7 @@
     </row>
     <row r="269" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B269">
         <v>5910</v>
@@ -38981,16 +38981,16 @@
         <v>767</v>
       </c>
       <c r="D269" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E269">
         <v>19</v>
       </c>
       <c r="F269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H269" s="1">
         <v>39729</v>
@@ -39112,7 +39112,7 @@
     </row>
     <row r="270" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B270">
         <v>7670</v>
@@ -39121,16 +39121,16 @@
         <v>915</v>
       </c>
       <c r="D270" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E270">
         <v>19</v>
       </c>
       <c r="F270" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G270" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H270" s="1">
         <v>40645</v>
@@ -39252,7 +39252,7 @@
     </row>
     <row r="271" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B271">
         <v>6846</v>
@@ -39261,16 +39261,16 @@
         <v>1004</v>
       </c>
       <c r="D271" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E271">
         <v>19</v>
       </c>
       <c r="F271" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G271" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H271" s="1">
         <v>40029</v>
@@ -39392,7 +39392,7 @@
     </row>
     <row r="272" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B272">
         <v>6612</v>
@@ -39401,16 +39401,16 @@
         <v>1255</v>
       </c>
       <c r="D272" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E272">
         <v>19</v>
       </c>
       <c r="F272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H272" s="1">
         <v>39931</v>
@@ -39532,7 +39532,7 @@
     </row>
     <row r="273" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B273">
         <v>6272</v>
@@ -39541,16 +39541,16 @@
         <v>1194</v>
       </c>
       <c r="D273" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E273">
         <v>127</v>
       </c>
       <c r="F273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H273" s="1">
         <v>39855</v>
@@ -39672,7 +39672,7 @@
     </row>
     <row r="274" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B274">
         <v>6332</v>
@@ -39681,16 +39681,16 @@
         <v>1195</v>
       </c>
       <c r="D274" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E274">
         <v>127</v>
       </c>
       <c r="F274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H274" s="1">
         <v>39869</v>
@@ -39812,7 +39812,7 @@
     </row>
     <row r="275" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B275">
         <v>6338</v>
@@ -39821,16 +39821,16 @@
         <v>1202</v>
       </c>
       <c r="D275" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E275">
         <v>127</v>
       </c>
       <c r="F275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H275" s="1">
         <v>39869</v>
@@ -39952,7 +39952,7 @@
     </row>
     <row r="276" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B276">
         <v>6336</v>
@@ -39961,16 +39961,16 @@
         <v>1203</v>
       </c>
       <c r="D276" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E276">
         <v>127</v>
       </c>
       <c r="F276" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G276" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H276" s="1">
         <v>39869</v>
